--- a/SouthAfrica.xlsx
+++ b/SouthAfrica.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>year</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>Energy_Use</t>
+  </si>
+  <si>
+    <t>Foreign Direct Investment</t>
   </si>
   <si>
     <t>1995</t>
@@ -470,13 +473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -498,10 +501,13 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2">
         <v>3.10000000054411</v>
@@ -521,10 +527,13 @@
       <c r="G2">
         <v>2498.89362476051</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <v>0.726947510244042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>4.29999999726792</v>
@@ -544,10 +553,13 @@
       <c r="G3">
         <v>2504.90311464402</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <v>0.5001257956303909</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4">
         <v>2.60000000146347</v>
@@ -567,10 +579,13 @@
       <c r="G4">
         <v>2527.94017398936</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <v>2.2550711064562</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0.50000000034143</v>
@@ -590,10 +605,13 @@
       <c r="G5">
         <v>2471.4770360205</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <v>0.359739477144212</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>2.39999999746338</v>
@@ -613,10 +631,13 @@
       <c r="G6">
         <v>2464.32336049953</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <v>0.992190194709925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>4.20000000067826</v>
@@ -636,10 +657,13 @@
       <c r="G7">
         <v>2424.88129205059</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <v>0.638424938571595</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8">
         <v>2.70000000019104</v>
@@ -659,10 +683,13 @@
       <c r="G8">
         <v>2461.02647738251</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <v>5.36835714550131</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B9">
         <v>3.70037440406668</v>
@@ -682,10 +709,13 @@
       <c r="G9">
         <v>2384.13708088505</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <v>1.1463521576394</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B10">
         <v>2.94907546754213</v>
@@ -705,10 +735,13 @@
       <c r="G10">
         <v>2518.33279347681</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <v>0.397490169708058</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11">
         <v>4.55455990721774</v>
@@ -728,10 +761,13 @@
       <c r="G11">
         <v>2716.29346093313</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <v>0.274200087704586</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B12">
         <v>5.27705197295467</v>
@@ -751,10 +787,13 @@
       <c r="G12">
         <v>2678.55422431572</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <v>2.25780880392155</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B13">
         <v>5.60380645895889</v>
@@ -774,10 +813,13 @@
       <c r="G13">
         <v>2625.79479121485</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <v>0.205124054253155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>5.36047405394162</v>
@@ -797,10 +839,13 @@
       <c r="G14">
         <v>2775.61525842774</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <v>1.97756754631478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>3.1910438863288</v>
@@ -820,10 +865,13 @@
       <c r="G15">
         <v>2950.15360950393</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <v>3.12685743762335</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>-1.53808913525583</v>
@@ -843,10 +891,13 @@
       <c r="G16">
         <v>2852.09544788239</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <v>2.31218179795727</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>3.03973288127956</v>
@@ -866,10 +917,13 @@
       <c r="G17">
         <v>2768.0945066505</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <v>0.884901952580543</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>3.16855627858818</v>
@@ -889,10 +943,13 @@
       <c r="G18">
         <v>2716.68117298982</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <v>0.903377443106824</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B19">
         <v>2.39623238465745</v>
@@ -912,10 +969,13 @@
       <c r="G19">
         <v>2636.68472563533</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <v>1.06492249485696</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20">
         <v>2.48546800826588</v>
@@ -935,10 +995,13 @@
       <c r="G20">
         <v>2602.84559845587</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <v>2.05358095229684</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21">
         <v>1.41382645223793</v>
@@ -958,10 +1021,13 @@
       <c r="G21">
         <v>2695.50577564787</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <v>1.5193274375398</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>1.32186223678229</v>
@@ -981,10 +1047,13 @@
       <c r="G22">
         <v>2300</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <v>0.438735792056359</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0.664552307858116</v>
@@ -1004,10 +1073,13 @@
       <c r="G23">
         <v>2300</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <v>0.684612553455795</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24">
         <v>1.15794695181735</v>
@@ -1027,10 +1099,13 @@
       <c r="G24">
         <v>2300</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <v>0.539673956759456</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25">
         <v>1.48761737271568</v>
@@ -1050,10 +1125,13 @@
       <c r="G25">
         <v>2300</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <v>1.37571218998329</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B26">
         <v>0.113053696742199</v>
@@ -1073,10 +1151,13 @@
       <c r="G26">
         <v>2300</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <v>1.31880445443166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>-6.43197482605483</v>
@@ -1095,6 +1176,9 @@
       </c>
       <c r="G27">
         <v>2300</v>
+      </c>
+      <c r="H27">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
